--- a/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu05TKKK.xlsx
+++ b/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu05TKKK.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>Mã</t>
-  </si>
-  <si>
-    <t>Năm
-…..</t>
   </si>
   <si>
     <t>LUA</t>
@@ -499,6 +495,9 @@
   <si>
     <t>&amp;=Header.tinh</t>
   </si>
+  <si>
+    <t>&amp;=Header.namkytruoc</t>
+  </si>
 </sst>
 </file>
 
@@ -507,7 +506,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\(#\)"/>
-    <numFmt numFmtId="166" formatCode="0.00;\-0.00;&quot;&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00;\-0.00;&quot;&quot;"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -852,6 +851,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,18 +906,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,7 +913,14 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1551,7 +1557,7 @@
   <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:BE9"/>
+      <selection activeCell="V38" sqref="V37:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1881,186 +1887,186 @@
     <row r="1" spans="1:57" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
       <c r="AZ1" s="3"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
     </row>
     <row r="2" spans="1:57" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
       <c r="AZ2" s="5"/>
-      <c r="BA2" s="42" t="s">
+      <c r="BA2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="46"/>
     </row>
     <row r="3" spans="1:57" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -2071,59 +2077,59 @@
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
+      <c r="D4" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
       <c r="AZ4" s="10"/>
       <c r="BA4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
@@ -2184,7 +2190,7 @@
       <c r="AY5" s="10"/>
       <c r="AZ5" s="10"/>
       <c r="BA5" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9"/>
@@ -2218,15 +2224,15 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
-      <c r="BA6" s="44" t="s">
+      <c r="BA6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="48"/>
     </row>
-    <row r="7" spans="1:57" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -2237,166 +2243,166 @@
         <v>8</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="M7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="O7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="S7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="T7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="U7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="V7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="W7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="19" t="s">
+      <c r="X7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="Y7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="Z7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="AA7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AB7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AC7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AD7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AE7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AF7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AG7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AH7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AH7" s="19" t="s">
+      <c r="AI7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AI7" s="19" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AJ7" s="19" t="s">
+      <c r="AK7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AK7" s="19" t="s">
+      <c r="AL7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AL7" s="19" t="s">
+      <c r="AM7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AM7" s="19" t="s">
+      <c r="AN7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AN7" s="19" t="s">
+      <c r="AO7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AO7" s="19" t="s">
+      <c r="AP7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AP7" s="19" t="s">
+      <c r="AQ7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AQ7" s="19" t="s">
+      <c r="AR7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AR7" s="19" t="s">
+      <c r="AS7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" s="19" t="s">
+      <c r="AT7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AT7" s="18" t="s">
+      <c r="AU7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AU7" s="18" t="s">
+      <c r="AV7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AV7" s="18" t="s">
+      <c r="AW7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AW7" s="18" t="s">
+      <c r="AX7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AX7" s="18" t="s">
+      <c r="AY7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AY7" s="18" t="s">
+      <c r="AZ7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AZ7" s="18" t="s">
+      <c r="BA7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="BA7" s="18" t="s">
+      <c r="BB7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="BB7" s="18" t="s">
+      <c r="BC7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="BC7" s="18" t="s">
+      <c r="BD7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="BD7" s="18" t="s">
+      <c r="BE7" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="BE7" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:57" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2574,197 +2580,197 @@
     </row>
     <row r="9" spans="1:57" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="E9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="F9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="G9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="H9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="I9" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="J9" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="K9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="L9" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="53" t="s">
+      <c r="M9" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="N9" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="O9" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="P9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="Q9" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="R9" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="S9" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="T9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="U9" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="U9" s="53" t="s">
+      <c r="V9" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="V9" s="53" t="s">
+      <c r="W9" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="W9" s="53" t="s">
+      <c r="X9" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="X9" s="53" t="s">
+      <c r="Y9" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="Y9" s="53" t="s">
+      <c r="Z9" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="Z9" s="53" t="s">
+      <c r="AA9" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="53" t="s">
+      <c r="AB9" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="AB9" s="53" t="s">
+      <c r="AC9" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="AC9" s="53" t="s">
+      <c r="AD9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="AD9" s="53" t="s">
+      <c r="AE9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="AE9" s="53" t="s">
+      <c r="AF9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="AF9" s="53" t="s">
+      <c r="AG9" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="AG9" s="53" t="s">
+      <c r="AH9" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="AH9" s="53" t="s">
+      <c r="AI9" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="AI9" s="53" t="s">
+      <c r="AJ9" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="AJ9" s="53" t="s">
+      <c r="AK9" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="AK9" s="53" t="s">
+      <c r="AL9" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="AL9" s="53" t="s">
+      <c r="AM9" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AM9" s="53" t="s">
+      <c r="AN9" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="AN9" s="53" t="s">
+      <c r="AO9" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="AO9" s="53" t="s">
+      <c r="AP9" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="AP9" s="53" t="s">
+      <c r="AQ9" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="AQ9" s="53" t="s">
+      <c r="AR9" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="AR9" s="53" t="s">
+      <c r="AS9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="AS9" s="53" t="s">
+      <c r="AT9" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="AT9" s="53" t="s">
+      <c r="AU9" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="AU9" s="53" t="s">
+      <c r="AV9" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AV9" s="53" t="s">
+      <c r="AW9" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="AW9" s="53" t="s">
+      <c r="AX9" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="AX9" s="53" t="s">
+      <c r="AY9" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="AY9" s="53" t="s">
+      <c r="AZ9" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="AZ9" s="53" t="s">
+      <c r="BA9" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="BA9" s="53" t="s">
+      <c r="BB9" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="BB9" s="53" t="s">
+      <c r="BC9" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="BC9" s="53" t="s">
+      <c r="BD9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="BD9" s="53" t="s">
+      <c r="BE9" s="38" t="s">
         <v>126</v>
-      </c>
-      <c r="BE9" s="53" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:57" s="25" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="A10" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="26"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
@@ -2792,42 +2798,42 @@
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
-      <c r="AT10" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="47"/>
-      <c r="AZ10" s="47"/>
-      <c r="BA10" s="47"/>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="47"/>
-      <c r="BE10" s="47"/>
+      <c r="AT10" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51"/>
+      <c r="BA10" s="51"/>
+      <c r="BB10" s="51"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
     </row>
     <row r="11" spans="1:57" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="A11" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="28"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
@@ -2855,42 +2861,42 @@
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
-      <c r="AT11" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="49"/>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="49"/>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="49"/>
-      <c r="BB11" s="49"/>
-      <c r="BC11" s="49"/>
-      <c r="BD11" s="49"/>
-      <c r="BE11" s="49"/>
+      <c r="AT11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
     </row>
     <row r="12" spans="1:57" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="A12" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="30"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
@@ -2918,20 +2924,20 @@
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
-      <c r="AT12" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
+      <c r="AT12" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
+      <c r="BB12" s="56"/>
+      <c r="BC12" s="56"/>
+      <c r="BD12" s="56"/>
+      <c r="BE12" s="56"/>
     </row>
     <row r="13" spans="1:57" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
@@ -2993,34 +2999,34 @@
       <c r="BE13" s="30"/>
     </row>
     <row r="14" spans="1:57" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
+      <c r="A14" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
       <c r="AC14" s="27"/>
@@ -3056,7 +3062,7 @@
     <row r="15" spans="1:57" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -3139,262 +3145,262 @@
     <mergeCell ref="BA2:BE2"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="50" priority="107">
+    <cfRule type="expression" dxfId="51" priority="107">
       <formula>$C9="LUA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="49" priority="106">
+    <cfRule type="expression" dxfId="50" priority="106">
       <formula>$C9="RDD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="48" priority="105">
+    <cfRule type="expression" dxfId="49" priority="105">
       <formula>$C9="RPH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="47" priority="104">
+    <cfRule type="expression" dxfId="48" priority="104">
       <formula>$C9="RSX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="46" priority="103">
+    <cfRule type="expression" dxfId="47" priority="103">
       <formula>$C9="NTS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="45" priority="102">
+    <cfRule type="expression" dxfId="46" priority="102">
       <formula>$C9="CNT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="44" priority="101">
+    <cfRule type="expression" dxfId="45" priority="101">
       <formula>$C9="LMU"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="43" priority="100">
+    <cfRule type="expression" dxfId="44" priority="100">
       <formula>$C9="NKH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="42" priority="99">
+    <cfRule type="expression" dxfId="43" priority="99">
       <formula>$C9="ONT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="expression" dxfId="41" priority="98">
+    <cfRule type="expression" dxfId="42" priority="98">
       <formula>$C9="ODT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="40" priority="97">
+    <cfRule type="expression" dxfId="41" priority="97">
       <formula>$C9="TSC"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="expression" dxfId="39" priority="96">
+    <cfRule type="expression" dxfId="40" priority="96">
       <formula>$C9="CQP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="38" priority="95">
+    <cfRule type="expression" dxfId="39" priority="95">
       <formula>$C9="CAN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="expression" dxfId="37" priority="94">
+    <cfRule type="expression" dxfId="38" priority="94">
       <formula>$C9="DVH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="36" priority="93">
+    <cfRule type="expression" dxfId="37" priority="93">
       <formula>$C9="DXH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="expression" dxfId="35" priority="92">
+    <cfRule type="expression" dxfId="36" priority="92">
       <formula>$C9="DYT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="expression" dxfId="34" priority="91">
+    <cfRule type="expression" dxfId="35" priority="91">
       <formula>$C9="DGD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="expression" dxfId="33" priority="90">
-      <formula>$C9="DDT"</formula>
+    <cfRule type="expression" dxfId="34" priority="90">
+      <formula>$C9="DTT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="expression" dxfId="32" priority="89">
+    <cfRule type="expression" dxfId="33" priority="89">
       <formula>$C9="DKH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9">
-    <cfRule type="expression" dxfId="31" priority="88">
+    <cfRule type="expression" dxfId="32" priority="88">
       <formula>$C9="DMT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="expression" dxfId="30" priority="87">
+    <cfRule type="expression" dxfId="31" priority="87">
       <formula>$C9="DKT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9">
-    <cfRule type="expression" dxfId="29" priority="86">
+    <cfRule type="expression" dxfId="30" priority="86">
       <formula>$C9="DNG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9">
-    <cfRule type="expression" dxfId="28" priority="84">
+    <cfRule type="expression" dxfId="29" priority="84">
       <formula>$C9="SKK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9">
-    <cfRule type="expression" dxfId="27" priority="83">
+    <cfRule type="expression" dxfId="28" priority="83">
       <formula>$C9="SKN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF9">
-    <cfRule type="expression" dxfId="26" priority="82">
+    <cfRule type="expression" dxfId="27" priority="82">
       <formula>$C9="SCT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9">
-    <cfRule type="expression" dxfId="25" priority="81">
+    <cfRule type="expression" dxfId="26" priority="81">
       <formula>$C9="TMD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9">
-    <cfRule type="expression" dxfId="24" priority="80">
+    <cfRule type="expression" dxfId="25" priority="80">
       <formula>$C9="SKC"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9">
-    <cfRule type="expression" dxfId="23" priority="79">
+    <cfRule type="expression" dxfId="24" priority="79">
       <formula>$C9="SKS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ9">
-    <cfRule type="expression" dxfId="22" priority="78">
+    <cfRule type="expression" dxfId="23" priority="78">
       <formula>$C9="DGT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="21" priority="77">
+    <cfRule type="expression" dxfId="22" priority="77">
       <formula>$C9="DTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL9">
-    <cfRule type="expression" dxfId="20" priority="76">
+    <cfRule type="expression" dxfId="21" priority="76">
       <formula>$C9="DCT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM9">
-    <cfRule type="expression" dxfId="19" priority="75">
+    <cfRule type="expression" dxfId="20" priority="75">
       <formula>$C9="DPC"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9">
-    <cfRule type="expression" dxfId="18" priority="74">
+    <cfRule type="expression" dxfId="19" priority="74">
       <formula>$C9="DDD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO9">
-    <cfRule type="expression" dxfId="17" priority="73">
+    <cfRule type="expression" dxfId="18" priority="73">
       <formula>$C9="DRA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP9">
-    <cfRule type="expression" dxfId="16" priority="72">
+    <cfRule type="expression" dxfId="17" priority="72">
       <formula>$C9="DNL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9">
-    <cfRule type="expression" dxfId="15" priority="71">
+    <cfRule type="expression" dxfId="16" priority="71">
       <formula>$C9="DBV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9">
-    <cfRule type="expression" dxfId="14" priority="70">
+    <cfRule type="expression" dxfId="15" priority="70">
       <formula>$C9="DCH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9">
-    <cfRule type="expression" dxfId="13" priority="69">
+    <cfRule type="expression" dxfId="14" priority="69">
       <formula>$C9="DKV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT9">
-    <cfRule type="expression" dxfId="12" priority="68">
+    <cfRule type="expression" dxfId="13" priority="68">
       <formula>$C9="TON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU9">
-    <cfRule type="expression" dxfId="11" priority="67">
+    <cfRule type="expression" dxfId="12" priority="67">
       <formula>$C9="TIN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV9">
-    <cfRule type="expression" dxfId="10" priority="66">
+    <cfRule type="expression" dxfId="11" priority="66">
       <formula>$C9="NTD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW9">
-    <cfRule type="expression" dxfId="9" priority="65">
+    <cfRule type="expression" dxfId="10" priority="65">
       <formula>$C9="MNC"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9">
-    <cfRule type="expression" dxfId="8" priority="64">
+    <cfRule type="expression" dxfId="9" priority="64">
       <formula>$C9="SON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY9">
-    <cfRule type="expression" dxfId="7" priority="63">
+    <cfRule type="expression" dxfId="8" priority="63">
       <formula>$C9="PNK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ9">
-    <cfRule type="expression" dxfId="6" priority="62">
+    <cfRule type="expression" dxfId="7" priority="62">
       <formula>$C9="CGT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA9">
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="6" priority="61">
       <formula>$C9="BCS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB9">
-    <cfRule type="expression" dxfId="4" priority="60">
+    <cfRule type="expression" dxfId="5" priority="60">
       <formula>$C9="DCS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC9">
-    <cfRule type="expression" dxfId="3" priority="59">
+    <cfRule type="expression" dxfId="4" priority="59">
       <formula>$C9="NCS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD9">
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>$C9="MCS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C9="HNK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C9="CLN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="expression" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C9="DSK"</formula>
     </cfRule>
   </conditionalFormatting>
